--- a/biology/Botanique/Siliquamomum/Siliquamomum.xlsx
+++ b/biology/Botanique/Siliquamomum/Siliquamomum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Siliquamomum est un genre de deux espèces de plantes herbacées de la famille des Zingiberaceae qui poussent du Vietnam au Sud Yunnan.
 La première description du genre Siliquamomum a été faite en 1895 par Henri Ernest Baillon dans le Bulletin mensuel de la Société linnéenne de Paris décrivant Siliquamomum tonkinense.
-Une deuxième espèce fut ajoutée au genre en 2010 après la publication dans le Garden's Bulletin Singapore 61 de "Siliquamomum oreodoxa (Zingiberaceae): a New Species from Southern Vietnam" par N.S.Ly, S. Hul  et J.Leong-Škornickova[1].
+Une deuxième espèce fut ajoutée au genre en 2010 après la publication dans le Garden's Bulletin Singapore 61 de "Siliquamomum oreodoxa (Zingiberaceae): a New Species from Southern Vietnam" par N.S.Ly, S. Hul  et J.Leong-Škornickova.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011) :
 Siliquamomum oreodoxa N.S.Ly &amp; Škornickova, (2010).
 Siliquamomum tonkinense Baill., (1895).
-Selon NCBI  (19 sept 2011)[3] :
+Selon NCBI  (19 sept 2011) :
 Siliquamomum tonkinense.</t>
         </is>
       </c>
